--- a/biology/Botanique/Roseraie_botanique_Carla_Fineschi/Roseraie_botanique_Carla_Fineschi.xlsx
+++ b/biology/Botanique/Roseraie_botanique_Carla_Fineschi/Roseraie_botanique_Carla_Fineschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La roseraie botanique Carla Fineschi ou roseraie de Cavriglia est un jardin botanique italien consacré aux roses situé au lieu-dit Casalone dans la commune de Cavriglia (Province d'Arezzo), entre Florence et Sienne, en Toscane.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de cette roseraie débute avec le professeur Gianfranco Fineschi qui, passionné de botanique, décide de créer une roseraie conservatoire en 1967, à partir d'une collection privée d'une cinquantaine de variétés de roses d'une grande rareté.
 L'implantation du jardin a été rigoureusement dictée par la structure botanique traditionnelle et par conséquent les rosiers ont été plantés en espaces séparés et subdivisés en sections, espèces, sous-espèces et hybrides. Chaque plante est marquée d'une étiquette donnant les informations d'identification essentielles (le nom botanique, l'année d'introduction en Europe, la possibilité éventuelle de produire des hybrides). 
